--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\medicine_finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FEE3C1-4017-4F38-BB2F-CC0059F0A67E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF4D2E5-04D2-42A3-9F55-37DDC52190E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22824" windowHeight="8844" xr2:uid="{53BE49AE-71B7-4F99-A882-3EDCF9445514}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="48">
-  <si>
-    <t>advil</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="148">
   <si>
     <t>medicine</t>
   </si>
@@ -36,142 +33,442 @@
     <t>datacol</t>
   </si>
   <si>
-    <t>{
-"content": "Ibuprofen",
-"dosage": "200mg per tablet"
-}</t>
-  </si>
-  <si>
-    <t>Aspirin</t>
-  </si>
-  <si>
-    <t>{"content": "Aspirin", "dosage": "325mg per tablet"}</t>
-  </si>
-  <si>
-    <t>Ibuprofen</t>
-  </si>
-  <si>
-    <t>{"content": "Ibuprofen", "dosage": "200mg per tablet"}</t>
-  </si>
-  <si>
-    <t>Acetaminophen</t>
-  </si>
-  <si>
-    <t>{"content": "Acetaminophen", "dosage": "500mg per tablet"}</t>
-  </si>
-  <si>
-    <t>Naproxen</t>
-  </si>
-  <si>
-    <t>{"content": "Naproxen", "dosage": "220mg per tablet"}</t>
-  </si>
-  <si>
-    <t>Diphenhydramine</t>
-  </si>
-  <si>
-    <t>{"content": "Diphenhydramine", "dosage": "25mg per tablet"}</t>
-  </si>
-  <si>
-    <t>Loratadine</t>
-  </si>
-  <si>
-    <t>{"content": "Loratadine", "dosage": "10mg per tablet"}</t>
-  </si>
-  <si>
-    <t>Ranitidine</t>
-  </si>
-  <si>
-    <t>{"content": "Ranitidine", "dosage": "150mg per tablet"}</t>
-  </si>
-  <si>
-    <t>Omeprazole</t>
-  </si>
-  <si>
-    <t>{"content": "Omeprazole", "dosage": "20mg per capsule"}</t>
-  </si>
-  <si>
-    <t>Albuterol</t>
-  </si>
-  <si>
-    <t>{"content": "Albuterol", "dosage": "90mcg per inhaler"}</t>
-  </si>
-  <si>
-    <t>Fluticasone</t>
-  </si>
-  <si>
-    <t>{"content": "Fluticasone", "dosage": "50mcg per inhaler"}</t>
-  </si>
-  <si>
-    <t>Insulin</t>
-  </si>
-  <si>
-    <t>{"content": "Insulin", "dosage": "100 units per mL"}</t>
-  </si>
-  <si>
-    <t>Lisinopril</t>
-  </si>
-  <si>
-    <t>{"content": "Lisinopril", "dosage": "10mg per tablet"}</t>
-  </si>
-  <si>
-    <t>Simvastatin</t>
-  </si>
-  <si>
-    <t>{"content": "Simvastatin", "dosage": "40mg per tablet"}</t>
-  </si>
-  <si>
-    <t>Levothyroxine</t>
-  </si>
-  <si>
-    <t>{"content": "Levothyroxine", "dosage": "100mcg per tablet"}</t>
-  </si>
-  <si>
-    <t>Metformin</t>
-  </si>
-  <si>
-    <t>{"content": "Metformin", "dosage": "500mg per tablet"}</t>
-  </si>
-  <si>
-    <t>Losartan</t>
-  </si>
-  <si>
-    <t>{"content": "Losartan", "dosage": "50mg per tablet"}</t>
-  </si>
-  <si>
-    <t>Gabapentin</t>
-  </si>
-  <si>
-    <t>{"content": "Gabapentin", "dosage": "300mg per capsule"}</t>
-  </si>
-  <si>
-    <t>Warfarin</t>
-  </si>
-  <si>
-    <t>{"content": "Warfarin", "dosage": "5mg per tablet"}</t>
-  </si>
-  <si>
-    <t>Furosemide</t>
-  </si>
-  <si>
-    <t>{"content": "Furosemide", "dosage": "40mg per tablet"}</t>
-  </si>
-  <si>
-    <t>Potassium</t>
-  </si>
-  <si>
-    <t>{"content": "Potassium", "dosage": "20mEq per tablet"}</t>
-  </si>
-  <si>
-    <t>Magnesium</t>
-  </si>
-  <si>
-    <t>{"content": "Magnesium", "dosage": "250mg per tablet"}</t>
-  </si>
-  <si>
-    <t>Vitamin D</t>
-  </si>
-  <si>
-    <t>{"content": "Vitamin D", "dosage": "1000IU per tablet"}</t>
+    <t>{"content": "Ezetimibe", "dosage": "10mg per tablet"}</t>
+  </si>
+  <si>
+    <t>ZETIA</t>
+  </si>
+  <si>
+    <t>{"content": "Warfarin", "dosage": "5mg"}</t>
+  </si>
+  <si>
+    <t>WARFARIN</t>
+  </si>
+  <si>
+    <t>{"content": "Lisdexamfetamine", "dosage": "30mg per capsule"}</t>
+  </si>
+  <si>
+    <t>VYVANSE</t>
+  </si>
+  <si>
+    <t>{"content": "Albuterol", "dosage": "90mcg per inhalation"}</t>
+  </si>
+  <si>
+    <t>VENTOLIN HFA</t>
+  </si>
+  <si>
+    <t>{"content": "Emtricitabine/Tenofovir disoproxil", "dosage": "200mg/300mg per tablet"}</t>
+  </si>
+  <si>
+    <t>TRUVADA</t>
+  </si>
+  <si>
+    <t>{"content": "Tramadol", "dosage": "50mg"}</t>
+  </si>
+  <si>
+    <t>TRAMADOL</t>
+  </si>
+  <si>
+    <t>{"content": "Tamsulosin", "dosage": "0.4mg"}</t>
+  </si>
+  <si>
+    <t>TAMSULOSIN</t>
+  </si>
+  <si>
+    <t>{"content": "Levothyroxine", "dosage": "25mcg per tablet"}</t>
+  </si>
+  <si>
+    <t>SYNTHROID</t>
+  </si>
+  <si>
+    <t>{"content": "Tiotropium", "dosage": "18mcg per capsule"}</t>
+  </si>
+  <si>
+    <t>SPIRIVA</t>
+  </si>
+  <si>
+    <t>{"content": "Simvastatin", "dosage": "20mg"}</t>
+  </si>
+  <si>
+    <t>SIMVASTATIN</t>
+  </si>
+  <si>
+    <t>{"content": "Sertraline", "dosage": "50mg"}</t>
+  </si>
+  <si>
+    <t>SERTRALINE</t>
+  </si>
+  <si>
+    <t>{"content": "Quetiapine", "dosage": "25mg per tablet"}</t>
+  </si>
+  <si>
+    <t>SEROQUEL</t>
+  </si>
+  <si>
+    <t>{"content": "Lenalidomide", "dosage": "10mg per capsule"}</t>
+  </si>
+  <si>
+    <t>REVLIMID</t>
+  </si>
+  <si>
+    <t>{"content": "Ranitidine", "dosage": "150mg"}</t>
+  </si>
+  <si>
+    <t>RANITIDINE</t>
+  </si>
+  <si>
+    <t>{"content": "Prednisone", "dosage": "10mg"}</t>
+  </si>
+  <si>
+    <t>PREDNISONE</t>
+  </si>
+  <si>
+    <t>{"content": "Clopidogrel", "dosage": "75mg per tablet"}</t>
+  </si>
+  <si>
+    <t>PLAVIX</t>
+  </si>
+  <si>
+    <t>{"content": "Oxycodone", "dosage": "10mg per tablet"}</t>
+  </si>
+  <si>
+    <t>OXYCONTIN</t>
+  </si>
+  <si>
+    <t>{"content": "Omeprazole", "dosage": "20mg"}</t>
+  </si>
+  <si>
+    <t>OMEPRAZOLE</t>
+  </si>
+  <si>
+    <t>{"content": "Esomeprazole", "dosage": "20mg per tablet"}</t>
+  </si>
+  <si>
+    <t>NEXIUM</t>
+  </si>
+  <si>
+    <t>{"content": "Pegfilgrastim", "dosage": "6mg per 0.6mL syringe"}</t>
+  </si>
+  <si>
+    <t>NEULASTA</t>
+  </si>
+  <si>
+    <t>{"content": "Memantine", "dosage": "5mg per tablet"}</t>
+  </si>
+  <si>
+    <t>NAMENDA</t>
+  </si>
+  <si>
+    <t>{"content": "Metoprolol", "dosage": "25mg"}</t>
+  </si>
+  <si>
+    <t>METOPROLOL</t>
+  </si>
+  <si>
+    <t>{"content": "Metformin", "dosage": "500mg"}</t>
+  </si>
+  <si>
+    <t>METFORMIN</t>
+  </si>
+  <si>
+    <t>{"content": "Bimatoprost", "dosage": "0.03% per mL"}</t>
+  </si>
+  <si>
+    <t>LUMIGAN</t>
+  </si>
+  <si>
+    <t>{"content": "Losartan", "dosage": "50mg"}</t>
+  </si>
+  <si>
+    <t>LOSARTAN</t>
+  </si>
+  <si>
+    <t>{"content": "Lorazepam", "dosage": "0.5mg"}</t>
+  </si>
+  <si>
+    <t>LORAZEPAM</t>
+  </si>
+  <si>
+    <t>{"content": "Lisinopril", "dosage": "10mg"}</t>
+  </si>
+  <si>
+    <t>LISINOPRIL</t>
+  </si>
+  <si>
+    <t>{"content": "Atorvastatin", "dosage": "10mg per tablet"}</t>
+  </si>
+  <si>
+    <t>LIPITOR</t>
+  </si>
+  <si>
+    <t>{"content": "Escitalopram", "dosage": "10mg per tablet"}</t>
+  </si>
+  <si>
+    <t>LEXAPRO</t>
+  </si>
+  <si>
+    <t>{"content": "Levothyroxine", "dosage": "50mcg"}</t>
+  </si>
+  <si>
+    <t>LEVOTHYROXINE</t>
+  </si>
+  <si>
+    <t>{"content": "Insulin glargine", "dosage": "100 units per mL"}</t>
+  </si>
+  <si>
+    <t>LANTUS SOLOSTAR</t>
+  </si>
+  <si>
+    <t>LANTUS</t>
+  </si>
+  <si>
+    <t>{"content": "Sitagliptin", "dosage": "100mg per tablet"}</t>
+  </si>
+  <si>
+    <t>JANUVIA</t>
+  </si>
+  <si>
+    <t>{"content": "Hydrochlorothiazide", "dosage": "12.5mg"}</t>
+  </si>
+  <si>
+    <t>HYDROCHLOROTHIAZIDE</t>
+  </si>
+  <si>
+    <t>{"content": "Adalimumab", "dosage": "40mg per 0.8mL pen"}</t>
+  </si>
+  <si>
+    <t>HUMIRA</t>
+  </si>
+  <si>
+    <t>{"content": "Gabapentin", "dosage": "300mg"}</t>
+  </si>
+  <si>
+    <t>GABAPENTIN</t>
+  </si>
+  <si>
+    <t>{"content": "Furosemide", "dosage": "20mg"}</t>
+  </si>
+  <si>
+    <t>FUROSEMIDE</t>
+  </si>
+  <si>
+    <t>{"content": "Fluoxetine", "dosage": "20mg"}</t>
+  </si>
+  <si>
+    <t>FLUOXETINE</t>
+  </si>
+  <si>
+    <t>{"content": "Epoetin alfa", "dosage": "4000 units per mL"}</t>
+  </si>
+  <si>
+    <t>EPOGEN</t>
+  </si>
+  <si>
+    <t>{"content": "Duloxetine", "dosage": "30mg"}</t>
+  </si>
+  <si>
+    <t>DULOXETINE</t>
+  </si>
+  <si>
+    <t>{"content": "Rosuvastatin", "dosage": "10mg per tablet"}</t>
+  </si>
+  <si>
+    <t>CRESTOR</t>
+  </si>
+  <si>
+    <t>{"content": "Ipratropium/Albuterol", "dosage": "20mcg/100mcg</t>
+  </si>
+  <si>
+    <t>COMBIVENT RESPIMAT</t>
+  </si>
+  <si>
+    <t>{"content": "Citalopram", "dosage": "20mg"}</t>
+  </si>
+  <si>
+    <t>CITALOPRAM</t>
+  </si>
+  <si>
+    <t>{"content": "Ciprofloxacin", "dosage": "500mg/tab"}</t>
+  </si>
+  <si>
+    <t>CIPRO</t>
+  </si>
+  <si>
+    <t>{"content": "Certolizumab", "dosage": "200mg/1mL injectable solution"}</t>
+  </si>
+  <si>
+    <t>CIMZIA</t>
+  </si>
+  <si>
+    <t>{"content": "Tadalafil", "dosage": "20mg/tab"}</t>
+  </si>
+  <si>
+    <t>CIALIS</t>
+  </si>
+  <si>
+    <t>{"content": "Varenicline", "dosage": "0.5mg/tab"}</t>
+  </si>
+  <si>
+    <t>CHANTIX</t>
+  </si>
+  <si>
+    <t>{"content": "Celecoxib", "dosage": "200mg/capsule"}</t>
+  </si>
+  <si>
+    <t>CELEBREX</t>
+  </si>
+  <si>
+    <t>{"content": "Carvedilol", "dosage": "6.25mg"}</t>
+  </si>
+  <si>
+    <t>CARVEDILOL</t>
+  </si>
+  <si>
+    <t>{"content": "Exenatide", "dosage": "5mcg/0.02mL injectable solution"}</t>
+  </si>
+  <si>
+    <t>BYETTA</t>
+  </si>
+  <si>
+    <t>{"content": "Olmesartan", "dosage": "20mg/tab"}</t>
+  </si>
+  <si>
+    <t>BENICAR</t>
+  </si>
+  <si>
+    <t>{"content": "Irbesartan", "dosage": "150mg/tab"}</t>
+  </si>
+  <si>
+    <t>AVAPRO</t>
+  </si>
+  <si>
+    <t>{"content": "Rosiglitazone", "dosage": "4mg/tab"}</t>
+  </si>
+  <si>
+    <t>AVANDIA</t>
+  </si>
+  <si>
+    <t>{"content": "Amoxicillin/Clavulanate", "dosage": "875mg/125mg per tablet"}</t>
+  </si>
+  <si>
+    <t>AUGMENTIN</t>
+  </si>
+  <si>
+    <t>{"content": "Efavirenz/Emtricitabine/Tenofovir", "dosage": "600mg/200mg/300mg per tablet"}</t>
+  </si>
+  <si>
+    <t>ATRIPLA</t>
+  </si>
+  <si>
+    <t>{"content": "Atorvastatin", "dosage": "20mg"}</t>
+  </si>
+  <si>
+    <t>ATORVASTATIN</t>
+  </si>
+  <si>
+    <t>{"content": "Atenolol", "dosage": "25mg"}</t>
+  </si>
+  <si>
+    <t>ATENOLOL</t>
+  </si>
+  <si>
+    <t>{"content": "Candesartan", "dosage": "16mg/tab"}</t>
+  </si>
+  <si>
+    <t>ATACAND</t>
+  </si>
+  <si>
+    <t>{"content": "Aspirin", "dosage": "81mg/tab"}</t>
+  </si>
+  <si>
+    <t>ASPIRIN</t>
+  </si>
+  <si>
+    <t>{"content": "Mometasone", "dosage": "220mcg/inhalation"}</t>
+  </si>
+  <si>
+    <t>ASMANEX TWISTHALER</t>
+  </si>
+  <si>
+    <t>{"content": "Mesalamine", "dosage": "800mg/tab"}</t>
+  </si>
+  <si>
+    <t>ASACOL HD</t>
+  </si>
+  <si>
+    <t>{"content": "Donepezil", "dosage": "5mg/tab"}</t>
+  </si>
+  <si>
+    <t>ARICEPT</t>
+  </si>
+  <si>
+    <t>{"content": "Amlodipine", "dosage": "5mg"}</t>
+  </si>
+  <si>
+    <t>AMLODIPINE</t>
+  </si>
+  <si>
+    <t>{"content": "Lubiprostone", "dosage": "24mcg/capsule"}</t>
+  </si>
+  <si>
+    <t>AMITIZA</t>
+  </si>
+  <si>
+    <t>{"content": "Zolpidem", "dosage": "10mg/tab"}</t>
+  </si>
+  <si>
+    <t>AMBIEN</t>
+  </si>
+  <si>
+    <t>{"content": "Alprazolam", "dosage": "0.25mg"}</t>
+  </si>
+  <si>
+    <t>ALPRAZOLAM</t>
+  </si>
+  <si>
+    <t>{"content": "Brimonidine", "dosage": "0.1% eye drops"}</t>
+  </si>
+  <si>
+    <t>ALPHAGAN P</t>
+  </si>
+  <si>
+    <t>{"content": "Fexofenadine", "dosage": "180mg/tab"}</t>
+  </si>
+  <si>
+    <t>ALLEGRA</t>
+  </si>
+  <si>
+    <t>{"content": "Dipyridamole/Aspirin", "dosage": "200mg/25mg per capsule"}</t>
+  </si>
+  <si>
+    <t>AGGRENOX</t>
+  </si>
+  <si>
+    <t>{"content": "Fluticasone/Salmeterol", "dosage": "100mcg/50mcg per inhalation"}</t>
+  </si>
+  <si>
+    <t>ADVAIR DISKUS</t>
+  </si>
+  <si>
+    <t>ADVAIR</t>
+  </si>
+  <si>
+    <t>{"content": "Pioglitazone", "dosage": "15mg per tablet"}</t>
+  </si>
+  <si>
+    <t>ACTOS</t>
+  </si>
+  <si>
+    <t>{"content": "Rabeprazole", "dosage": "20mg/tab"}</t>
+  </si>
+  <si>
+    <t>ACIPHEX</t>
+  </si>
+  <si>
+    <t>{"content": "Aripiprazole", "dosage": "5mg per tablet"}</t>
+  </si>
+  <si>
+    <t>ABILIFY</t>
   </si>
 </sst>
 </file>
@@ -220,25 +517,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -548,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4700B0A-7359-4F54-8FA4-514CB502EDE3}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,198 +865,609 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A75">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\medicine_finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF4D2E5-04D2-42A3-9F55-37DDC52190E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9599AF0-FAE1-4FEE-B5EE-8D791456266E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22824" windowHeight="8844" xr2:uid="{53BE49AE-71B7-4F99-A882-3EDCF9445514}"/>
   </bookViews>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4700B0A-7359-4F54-8FA4-514CB502EDE3}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:B75"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\medicine_finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9599AF0-FAE1-4FEE-B5EE-8D791456266E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E0EA75-B2D6-42E6-B0B7-701DA053F294}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22824" windowHeight="8844" xr2:uid="{53BE49AE-71B7-4F99-A882-3EDCF9445514}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="254">
   <si>
     <t>medicine</t>
   </si>
@@ -469,6 +469,324 @@
   </si>
   <si>
     <t>ABILIFY</t>
+  </si>
+  <si>
+    <t>DIGOXIN</t>
+  </si>
+  <si>
+    <t>{"content": "Digoxin", "dosage": "0.125mg-0.25mg orally once a day"}</t>
+  </si>
+  <si>
+    <t>PHENOBARBITAL</t>
+  </si>
+  <si>
+    <t>{"content": "Phenobarbital", "dosage": "30mg-120mg orally once a day"}</t>
+  </si>
+  <si>
+    <t>MORPHINE</t>
+  </si>
+  <si>
+    <t>{"content": "Morphine sulfate", "dosage": "15mg-30mg orally once a day"}</t>
+  </si>
+  <si>
+    <t>CODEINE</t>
+  </si>
+  <si>
+    <t>{"content": "Codeine phosphate", "dosage": "15mg-60mg orally once a day"}</t>
+  </si>
+  <si>
+    <t>PENICILLIN</t>
+  </si>
+  <si>
+    <t>{"content": "Penicillin", "dosage": "250mg-500mg orally 4 times a day"}</t>
+  </si>
+  <si>
+    <t>BENADRYL</t>
+  </si>
+  <si>
+    <t>{"content": "Diphenhydramine hydrochloride", "dosage": "25mg-50mg orally every 4-6 hours"}</t>
+  </si>
+  <si>
+    <t>VALIUM</t>
+  </si>
+  <si>
+    <t>{"content": "Diazepam", "dosage": "2mg-10mg orally 2-4 times a day"}</t>
+  </si>
+  <si>
+    <t>TETRACYCLINE</t>
+  </si>
+  <si>
+    <t>{"content": "Tetracycline hydrochloride", "dosage": "250mg-500mg orally 4 times a day"}</t>
+  </si>
+  <si>
+    <t>LIBRIUM</t>
+  </si>
+  <si>
+    <t>{"content": "Chlordiazepoxide hydrochloride", "dosage": "5mg-25mg orally 2-4 times a day"}</t>
+  </si>
+  <si>
+    <t>ISONIAZID</t>
+  </si>
+  <si>
+    <t>{"content": "Isoniazid", "dosage": "300mg-900mg orally once a day"}</t>
+  </si>
+  <si>
+    <t>CHLORAMPHENICOL</t>
+  </si>
+  <si>
+    <t>{"content": "Chloramphenicol", "dosage": "250mg-500mg orally 4 times a day"}</t>
+  </si>
+  <si>
+    <t>ATROPINE</t>
+  </si>
+  <si>
+    <t>{"content": "Atropine sulfate", "dosage": "0.5mg-1mg orally or by injection"}</t>
+  </si>
+  <si>
+    <t>SULFONAMIDES</t>
+  </si>
+  <si>
+    <t>{"content": "Sulfonamides", "dosage": "Depends on specific medication"}</t>
+  </si>
+  <si>
+    <t>DEXTROAMPHETAMINE</t>
+  </si>
+  <si>
+    <t>{"content": "Dextroamphetamine sulfate", "dosage": "5mg-10mg orally 2-3 times a day"}</t>
+  </si>
+  <si>
+    <t>METHYLDOPA</t>
+  </si>
+  <si>
+    <t>{"content": "Methyldopa", "dosage": "250mg-500mg orally 2-3 times a day"}</t>
+  </si>
+  <si>
+    <t>OXYCODONE</t>
+  </si>
+  <si>
+    <t>{"content": "Oxycodone hydrochloride", "dosage": "5mg-30mg orally every 4-6 hours"}</t>
+  </si>
+  <si>
+    <t>MESTEROLONE</t>
+  </si>
+  <si>
+    <t>{"content": "Mesterolone", "dosage": "25mg-100mg orally once a day"}</t>
+  </si>
+  <si>
+    <t>PROGESTERONE</t>
+  </si>
+  <si>
+    <t>{"content": "Progesterone", "dosage": "200mg-400mg orally or by injection"}</t>
+  </si>
+  <si>
+    <t>ALLOPURINOL</t>
+  </si>
+  <si>
+    <t>{"content": "Allopurinol", "dosage": "100mg-300mg orally once a day"}</t>
+  </si>
+  <si>
+    <t>HYDRALAZINE</t>
+  </si>
+  <si>
+    <t>{"content": "Hydralazine hydrochloride", "dosage": "10mg-100mg orally 4 times a day"}</t>
+  </si>
+  <si>
+    <t>ACCUPRIL</t>
+  </si>
+  <si>
+    <t>{"content": "Quinapril", "dosage": "5 mg, 10 mg, 20 mg, 40 mg"}</t>
+  </si>
+  <si>
+    <t>ACTONEL</t>
+  </si>
+  <si>
+    <t>{"content": "Risedronate", "dosage": "5 mg, 30 mg, 35 mg, 75 mg"}</t>
+  </si>
+  <si>
+    <t>ALBENZA</t>
+  </si>
+  <si>
+    <t>{"content": "Albendazole", "dosage": "200 mg"}</t>
+  </si>
+  <si>
+    <t>ALDACTAZIDE</t>
+  </si>
+  <si>
+    <t>{"content": "Spironolactone and Hydrochlorothiazide", "dosage": "25 mg/25 mg, 50 mg/50 mg"}</t>
+  </si>
+  <si>
+    <t>ALDOMET</t>
+  </si>
+  <si>
+    <t>{"content": "Methyldopa", "dosage": "125 mg, 250 mg, 500 mg"}</t>
+  </si>
+  <si>
+    <t>ALKERAN</t>
+  </si>
+  <si>
+    <t>{"content": "Melphalan", "dosage": "2 mg, 5 mg"}</t>
+  </si>
+  <si>
+    <t>ALPHAGAN</t>
+  </si>
+  <si>
+    <t>{"content": "Brimonidine", "dosage": "0.1%, 0.15%, 0.2%"}</t>
+  </si>
+  <si>
+    <t>ALTACE</t>
+  </si>
+  <si>
+    <t>{"content": "Ramipril", "dosage": "1.25 mg, 2.5 mg, 5 mg, 10 mg"}</t>
+  </si>
+  <si>
+    <t>AMARYL</t>
+  </si>
+  <si>
+    <t>{"content": "Glimepiride", "dosage": "1 mg, 2 mg, 4 mg"}</t>
+  </si>
+  <si>
+    <t>AMOXIL</t>
+  </si>
+  <si>
+    <t>{"content": "Amoxicillin", "dosage": "250 mg, 500 mg, 875 mg"}</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN</t>
+  </si>
+  <si>
+    <t>{"Content": "Ciprofloxacin hydrochloride", "Dosage": "500mg"}</t>
+  </si>
+  <si>
+    <t>CLARITHROMYCIN</t>
+  </si>
+  <si>
+    <t>{"Content": "Clarithromycin", "Dosage": "500mg"}</t>
+  </si>
+  <si>
+    <t>CLOPIDOGREL</t>
+  </si>
+  <si>
+    <t>{"Content": "Clopidogrel bisulfate", "Dosage": "75mg"}</t>
+  </si>
+  <si>
+    <t>CLOXACILLIN</t>
+  </si>
+  <si>
+    <t>{"Content": "Cloxacillin sodium", "Dosage": "500mg"}</t>
+  </si>
+  <si>
+    <t>CLOZAPINE</t>
+  </si>
+  <si>
+    <t>{"Content": "Clozapine", "Dosage": "25mg"}</t>
+  </si>
+  <si>
+    <t>COLCHICINE</t>
+  </si>
+  <si>
+    <t>{"Content": "Colchicine", "Dosage": "0.6mg"}</t>
+  </si>
+  <si>
+    <t>COMBIVENT</t>
+  </si>
+  <si>
+    <t>{"Content": "Ipratropium bromide and Salbutamol sulfate", "Dosage": "20mcg/100mcg"}</t>
+  </si>
+  <si>
+    <t>COPAXONE</t>
+  </si>
+  <si>
+    <t>{"Content": "Glatiramer acetate", "Dosage": "20mg"}</t>
+  </si>
+  <si>
+    <t>COREG</t>
+  </si>
+  <si>
+    <t>{"Content": "Carvedilol", "Dosage": "6.25mg"}</t>
+  </si>
+  <si>
+    <t>COUMADIN</t>
+  </si>
+  <si>
+    <t>{"Content": "Warfarin sodium", "Dosage": "2mg"}</t>
+  </si>
+  <si>
+    <t>COVERSYL</t>
+  </si>
+  <si>
+    <t>{"Content": "Perindopril erbumine", "Dosage": "4mg"}</t>
+  </si>
+  <si>
+    <t>CREON</t>
+  </si>
+  <si>
+    <t>{"Content": "Pancreatin", "Dosage": "25,000 USP units"}</t>
+  </si>
+  <si>
+    <t>CRIXIVAN</t>
+  </si>
+  <si>
+    <t>{"Content": "Indinavir sulfate", "Dosage": "400mg"}</t>
+  </si>
+  <si>
+    <t>CYCLOBENZAPRINE</t>
+  </si>
+  <si>
+    <t>{"Content": "Cyclobenzaprine hydrochloride", "Dosage": "10mg"}</t>
+  </si>
+  <si>
+    <t>CYCLOPHOSPHAMIDE</t>
+  </si>
+  <si>
+    <t>{"Content": "Cyclophosphamide monohydrate", "Dosage": "50mg"}</t>
+  </si>
+  <si>
+    <t>CYMBALTA</t>
+  </si>
+  <si>
+    <t>{"Content": "Duloxetine hydrochloride", "Dosage": "30mg"}</t>
+  </si>
+  <si>
+    <t>CYPROHEPTADINE</t>
+  </si>
+  <si>
+    <t>{"Content": "Cyproheptadine hydrochloride", "Dosage": "4mg"}</t>
+  </si>
+  <si>
+    <t>CYTOMEL</t>
+  </si>
+  <si>
+    <t>{"Content": "Liothyronine sodium", "Dosage": "25mcg"}</t>
+  </si>
+  <si>
+    <t>CYTOTEC</t>
+  </si>
+  <si>
+    <t>{"Content": "Misoprostol", "Dosage": "200mcg"}</t>
+  </si>
+  <si>
+    <t>CELECOXIB</t>
+  </si>
+  <si>
+    <t>{"Content": "Celecoxib", "Dosage": "100mg"}</t>
+  </si>
+  <si>
+    <t>CEFACLOR</t>
+  </si>
+  <si>
+    <t>{"Content": "Cefaclor", "Dosage": "500mg"}</t>
+  </si>
+  <si>
+    <t>CEFADROXIL</t>
+  </si>
+  <si>
+    <t>{"Content": "Cefadroxil monohydrate", "Dosage": "500mg"}</t>
+  </si>
+  <si>
+    <t>CEFIXIME</t>
+  </si>
+  <si>
+    <t>{"Content": "Cefixime trihydrate", "Dosage": "200mg"}</t>
   </si>
 </sst>
 </file>
@@ -851,16 +1169,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4700B0A-7359-4F54-8FA4-514CB502EDE3}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -880,593 +1198,1020 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>248</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>67</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>65</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>62</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>26</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>22</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+    <row r="126" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B127" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A75">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <sortState ref="A2:B128">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <conditionalFormatting sqref="A1:A67">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\medicine_finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA75633-68BF-4591-9404-3A430247636D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E1A79D-2822-47AF-B7FF-2BE7A7332897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22824" windowHeight="8844" xr2:uid="{53BE49AE-71B7-4F99-A882-3EDCF9445514}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53BE49AE-71B7-4F99-A882-3EDCF9445514}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
   <si>
     <t>medicine</t>
   </si>
@@ -364,13 +364,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -802,434 +801,433 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B128">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B128">
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="A1">
